--- a/Results/PyFCS_Val_Time.xlsx
+++ b/Results/PyFCS_Val_Time.xlsx
@@ -1,104 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EFDC98-A53A-4229-AD99-D5C417514ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="195" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="195" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Test_Time" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test_Time" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="a_Time" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Tooth</t>
-  </si>
-  <si>
-    <t>Elapsed Time (seconds)</t>
-  </si>
-  <si>
-    <t>Elapsed Time (minutes)</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A3_5</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -419,221 +409,530 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>4.6355292797088623</v>
-      </c>
-      <c r="C2">
-        <v>7.7258821328481039E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>4.6017906665802002</v>
-      </c>
-      <c r="C3">
-        <v>7.6696511109670004E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tooth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Elapsed Time (seconds)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Elapsed Time (minutes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.635529279708862</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.07725882132848104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.6017906665802</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.07669651110967</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>5.364154577255249</v>
       </c>
-      <c r="C4">
-        <v>8.9402576287587479E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>4.9690701961517334</v>
-      </c>
-      <c r="C5">
-        <v>8.2817836602528894E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>3.5861144065856929</v>
-      </c>
-      <c r="C6">
-        <v>5.9768573443094893E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>3.3535094261169429</v>
-      </c>
-      <c r="C7">
-        <v>5.589182376861572E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+      <c r="C4" t="n">
+        <v>0.08940257628758748</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A3_5</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.969070196151733</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.08281783660252889</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.586114406585693</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05976857344309489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.353509426116943</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05589182376861572</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>3.532954216003418</v>
       </c>
-      <c r="C8">
-        <v>5.8882570266723631E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>4.0725440979003906</v>
-      </c>
-      <c r="C9">
-        <v>6.7875734965006512E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>2.8272361755371089</v>
-      </c>
-      <c r="C10">
-        <v>4.7120602925618489E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>3.5118355751037602</v>
-      </c>
-      <c r="C11">
-        <v>5.8530592918395997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>4.4107820987701416</v>
-      </c>
-      <c r="C12">
-        <v>7.3513034979502359E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>4.6560461521148682</v>
-      </c>
-      <c r="C13">
-        <v>7.7600769201914471E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
+      <c r="C8" t="n">
+        <v>0.05888257026672363</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.072544097900391</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06787573496500651</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.827236175537109</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04712060292561849</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.51183557510376</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.058530592918396</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.410782098770142</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.07351303497950236</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4.656046152114868</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.07760076920191447</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>1.941182136535645</v>
       </c>
-      <c r="C14">
-        <v>3.2353035608927411E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>4.1216213703155518</v>
-      </c>
-      <c r="C15">
-        <v>6.8693689505259198E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
+      <c r="C14" t="n">
+        <v>0.03235303560892741</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.121621370315552</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0686936895052592</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>4.000169038772583</v>
       </c>
-      <c r="C16">
-        <v>6.6669483979543046E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>4.6655375957489014</v>
-      </c>
-      <c r="C17">
-        <v>7.7758959929148358E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
+      <c r="C16" t="n">
+        <v>0.06666948397954305</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.665537595748901</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07775895992914836</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>64.25007700920105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>1.070834616820018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tooth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Elapsed Time (seconds)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Elapsed Time (minutes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.128527879714966</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.05214213132858277</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.968438386917114</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.06614063978195191</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.880460739135742</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0480076789855957</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A3_5</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.367753505706787</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05612922509511312</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.833307504653931</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04722179174423217</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.647228479385376</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04412047465642293</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1615872383117676</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00269312063852946</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.280849933624268</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07134749889373779</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.000669479370117</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01667782465616862</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.694450616836548</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04490751028060913</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.079735994338989</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.06799559990564982</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1498825550079346</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.002498042583465576</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.528344631195068</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.04213907718658447</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3.567494869232178</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0594582478205363</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.528055906295776</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0921342651049296</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.936388969421387</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.06560648282368978</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>46.75317668914795</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7792196114857991</v>
       </c>
     </row>
   </sheetData>
